--- a/biology/Mycologie/Trapeliaceae/Trapeliaceae.xlsx
+++ b/biology/Mycologie/Trapeliaceae/Trapeliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trapeliaceae sont une famille de champignons ascomycètes. Il s'agit de lichens au thalle encroûtant associés à des algues vertes. De taille moyenne, la famille comporte actuellement plus de 120 espèces regroupées en 14 genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1990, sur la base de caractères anatomiques, les lichens jusqu'alors classés dans la famille des Trapeliaceae ont été placés dans les Agyriaceae. En 2007, une étude faisant appel à des caractères moléculaires a montré que cet arrangement ne pouvait rendre compte des parentés véritables et conduit au rétablissement des Trapeliaceae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, sur la base de caractères anatomiques, les lichens jusqu'alors classés dans la famille des Trapeliaceae ont été placés dans les Agyriaceae. En 2007, une étude faisant appel à des caractères moléculaires a montré que cet arrangement ne pouvait rendre compte des parentés véritables et conduit au rétablissement des Trapeliaceae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Outline of Ascomycota—2009[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Outline of Ascomycota—2009 :
 Amylora
 Aspiciliopsis
 Coppinsia
